--- a/output/1Y_P37_1VAL-D.xlsx
+++ b/output/1Y_P37_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>17.0207</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>587.5199</v>
       </c>
-      <c r="G2" s="1">
-        <v>587.5199</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.121999999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.0207</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.121999999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>17.4608</v>
       </c>
+      <c r="E3" s="1">
+        <v>587.5199</v>
+      </c>
       <c r="F3" s="1">
         <v>572.7114</v>
       </c>
-      <c r="G3" s="1">
-        <v>1160.2313</v>
-      </c>
       <c r="H3" s="1">
-        <v>20153.4505</v>
+        <v>10205.3382</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.2379</v>
+        <v>10205.3382</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.0207</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20153.4505</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0103</v>
+        <v>0.0205</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>16.886</v>
       </c>
+      <c r="E4" s="1">
+        <v>1160.2313</v>
+      </c>
       <c r="F4" s="1">
         <v>592.2066</v>
       </c>
-      <c r="G4" s="1">
-        <v>1752.4379</v>
-      </c>
       <c r="H4" s="1">
-        <v>29438.3282</v>
+        <v>19490.1463</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.119</v>
+        <v>19490.1463</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.2379</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29438.3282</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0237</v>
+        <v>-0.0354</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>17.59</v>
       </c>
+      <c r="E5" s="1">
+        <v>1752.4379</v>
+      </c>
       <c r="F5" s="1">
         <v>568.5048</v>
       </c>
-      <c r="G5" s="1">
-        <v>2320.9427</v>
-      </c>
       <c r="H5" s="1">
-        <v>40613.7128</v>
+        <v>30665.5605</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.2344</v>
+        <v>30665.5605</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.119</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40613.7128</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0298</v>
+        <v>0.0399</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>15.0121</v>
       </c>
+      <c r="E6" s="1">
+        <v>2320.9427</v>
+      </c>
       <c r="F6" s="1">
         <v>666.1292999999999</v>
       </c>
-      <c r="G6" s="1">
-        <v>2987.0721</v>
-      </c>
       <c r="H6" s="1">
-        <v>44609.5316</v>
+        <v>34661.4231</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>-0</v>
       </c>
       <c r="J6" s="1">
-        <v>16.7388</v>
+        <v>34661.4231</v>
       </c>
       <c r="K6" s="1">
+        <v>40000</v>
+      </c>
+      <c r="L6" s="1">
+        <v>17.2344</v>
+      </c>
+      <c r="M6" s="1">
         <v>3.57</v>
       </c>
-      <c r="L6" s="1">
-        <v>7457.189</v>
-      </c>
-      <c r="M6" s="1">
-        <v>10000</v>
-      </c>
       <c r="N6" s="1">
-        <v>-2542.811</v>
+        <v>5630.583</v>
       </c>
       <c r="O6" s="1">
-        <v>7457.189</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>52066.7206</v>
+        <v>-4369.417</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0287</v>
+        <v>-0.1476</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>15.3645</v>
       </c>
+      <c r="E7" s="1">
+        <v>2987.0721</v>
+      </c>
       <c r="F7" s="1">
-        <v>720.187</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3707.259</v>
+        <v>703.2034</v>
       </c>
       <c r="H7" s="1">
-        <v>56664.7129</v>
+        <v>45656.7991</v>
       </c>
       <c r="I7" s="1">
-        <v>61065.3127</v>
+        <v>5630.583</v>
       </c>
       <c r="J7" s="1">
-        <v>16.4718</v>
+        <v>51287.3821</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50804.369</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.0081</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-11065.3127</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>6391.8763</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>63056.5892</v>
+        <v>-10804.369</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0159</v>
+        <v>0.1484</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>16.4953</v>
       </c>
+      <c r="E8" s="1">
+        <v>3690.2755</v>
+      </c>
       <c r="F8" s="1">
-        <v>670.8161</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4378.0751</v>
+        <v>654.9968</v>
       </c>
       <c r="H8" s="1">
-        <v>71842.89939999999</v>
+        <v>60556.3137</v>
       </c>
       <c r="I8" s="1">
-        <v>72130.6254</v>
+        <v>4826.214</v>
       </c>
       <c r="J8" s="1">
-        <v>16.4754</v>
+        <v>65382.5277</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>61608.738</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>16.6949</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-11065.3127</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>5326.5636</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>77169.463</v>
+        <v>-10804.369</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0563</v>
+        <v>0.0668</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>16.9701</v>
       </c>
+      <c r="E9" s="1">
+        <v>4345.2723</v>
+      </c>
       <c r="F9" s="1">
-        <v>652.0476</v>
-      </c>
-      <c r="G9" s="1">
-        <v>5030.1227</v>
+        <v>636.6709</v>
       </c>
       <c r="H9" s="1">
-        <v>84919.0347</v>
+        <v>73357.3216</v>
       </c>
       <c r="I9" s="1">
-        <v>83195.9382</v>
+        <v>4021.845</v>
       </c>
       <c r="J9" s="1">
-        <v>16.5395</v>
+        <v>77379.1666</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>72413.107</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.6648</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-11065.3127</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>4261.2509</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>89180.2855</v>
+        <v>-10804.369</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0231</v>
+        <v>0.0265</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>17.9905</v>
       </c>
+      <c r="E10" s="1">
+        <v>4981.9432</v>
+      </c>
       <c r="F10" s="1">
-        <v>615.0642</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5645.1869</v>
+        <v>600.5597</v>
       </c>
       <c r="H10" s="1">
-        <v>101033.0395</v>
+        <v>89162.83409999999</v>
       </c>
       <c r="I10" s="1">
-        <v>94261.2509</v>
+        <v>3217.476</v>
       </c>
       <c r="J10" s="1">
-        <v>16.6976</v>
+        <v>92380.3101</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>83217.476</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.7038</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-11065.3127</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>3195.9382</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>104228.9776</v>
+        <v>-10804.369</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0509</v>
+        <v>0.0572</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>18.2369</v>
       </c>
+      <c r="E11" s="1">
+        <v>5582.5029</v>
+      </c>
       <c r="F11" s="1">
-        <v>606.754</v>
-      </c>
-      <c r="G11" s="1">
-        <v>6251.941</v>
+        <v>592.4455</v>
       </c>
       <c r="H11" s="1">
-        <v>113424.5886</v>
+        <v>101279.4423</v>
       </c>
       <c r="I11" s="1">
-        <v>105326.5636</v>
+        <v>2413.107</v>
       </c>
       <c r="J11" s="1">
-        <v>16.847</v>
+        <v>103692.5493</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>94021.845</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.8422</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-11065.3127</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>2130.6254</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>115555.214</v>
+        <v>-10804.369</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0116</v>
+        <v>0.0128</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>19.1395</v>
       </c>
+      <c r="E12" s="1">
+        <v>6174.9484</v>
+      </c>
       <c r="F12" s="1">
-        <v>578.1401</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6830.0811</v>
+        <v>564.5063</v>
       </c>
       <c r="H12" s="1">
-        <v>130046.1098</v>
+        <v>117572.2521</v>
       </c>
       <c r="I12" s="1">
-        <v>116391.8763</v>
+        <v>1608.738</v>
       </c>
       <c r="J12" s="1">
-        <v>17.0411</v>
+        <v>119180.9901</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>104826.214</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.976</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-11065.3127</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>1065.3127</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>131111.4225</v>
+        <v>-10804.369</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0443</v>
+        <v>0.0483</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>20.979</v>
       </c>
+      <c r="E13" s="1">
+        <v>6739.4547</v>
+      </c>
       <c r="F13" s="1">
-        <v>527.4471</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7357.5282</v>
+        <v>515.0088</v>
       </c>
       <c r="H13" s="1">
-        <v>153553.8204</v>
+        <v>140654.4417</v>
       </c>
       <c r="I13" s="1">
-        <v>127457.189</v>
+        <v>804.369</v>
       </c>
       <c r="J13" s="1">
-        <v>17.3234</v>
+        <v>141458.8107</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>115630.583</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.1573</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-11065.3127</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>153553.8204</v>
+        <v>-10804.369</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0882</v>
+        <v>0.095</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>22.3911</v>
       </c>
+      <c r="E14" s="1">
+        <v>7254.4635</v>
+      </c>
       <c r="F14" s="1">
-        <v>-7357.5282</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-6739.4547</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>161593.8996</v>
       </c>
       <c r="I14" s="1">
-        <v>127457.189</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.3234</v>
+        <v>161593.8996</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>115630.583</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.9392</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>163889.6759</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>163889.6759</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>163889.6759</v>
+        <v>150122.0277</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0021</v>
+        <v>0.0669</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>17.0207</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>587.5199</v>
       </c>
       <c r="G2" s="1">
-        <v>587.5199</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.121999999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.0207</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.121999999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>17.4608</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>587.5199</v>
       </c>
       <c r="F3" s="1">
         <v>563.8773</v>
       </c>
       <c r="G3" s="1">
-        <v>1151.3972</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>20000</v>
+        <v>10205.3382</v>
       </c>
       <c r="I3" s="1">
-        <v>19845.7491</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.2362</v>
+        <v>10205.3382</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9845.749100000001</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>16.7582</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9845.749100000001</v>
       </c>
-      <c r="O3" s="1">
-        <v>154.2509</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20154.2509</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0103</v>
+        <v>0.0205</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>16.886</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1151.3972</v>
       </c>
       <c r="F4" s="1">
         <v>601.3414</v>
       </c>
       <c r="G4" s="1">
-        <v>1752.7386</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>29443.3798</v>
+        <v>19341.7462</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>154.2509</v>
       </c>
       <c r="J4" s="1">
-        <v>17.1161</v>
+        <v>19495.9971</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.3702</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10154.2509</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29443.3798</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0236</v>
+        <v>-0.0351</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>17.59</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>1752.7386</v>
       </c>
       <c r="F5" s="1">
         <v>533.1324</v>
       </c>
       <c r="G5" s="1">
-        <v>2285.871</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>30670.8226</v>
       </c>
       <c r="I5" s="1">
-        <v>39377.7991</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.2266</v>
+        <v>30670.8226</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29377.7991</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>16.7611</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9377.7991</v>
       </c>
-      <c r="O5" s="1">
-        <v>622.2009</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40622.2009</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0299</v>
+        <v>0.0398</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>15.0121</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2285.871</v>
       </c>
       <c r="F6" s="1">
         <v>707.576</v>
       </c>
       <c r="G6" s="1">
-        <v>2993.447</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>44704.7359</v>
+        <v>34137.6552</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>622.2009</v>
       </c>
       <c r="J6" s="1">
-        <v>16.7032</v>
+        <v>34759.8561</v>
       </c>
       <c r="K6" s="1">
+        <v>40000</v>
+      </c>
+      <c r="L6" s="1">
+        <v>17.4988</v>
+      </c>
+      <c r="M6" s="1">
         <v>3.57</v>
       </c>
-      <c r="L6" s="1">
-        <v>7344.5036</v>
-      </c>
-      <c r="M6" s="1">
-        <v>10000</v>
-      </c>
       <c r="N6" s="1">
-        <v>-3277.6973</v>
+        <v>5631.5492</v>
       </c>
       <c r="O6" s="1">
-        <v>7344.5036</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>52049.2395</v>
+        <v>-4990.6517</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0282</v>
+        <v>-0.1453</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>15.3645</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>2993.447</v>
       </c>
       <c r="F7" s="1">
         <v>932.0214999999999</v>
       </c>
       <c r="G7" s="1">
-        <v>3925.4684</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>45754.2384</v>
       </c>
       <c r="I7" s="1">
-        <v>64320.0437</v>
+        <v>5631.5492</v>
       </c>
       <c r="J7" s="1">
-        <v>16.3853</v>
+        <v>51385.7876</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>54320.0437</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>18.1463</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-14320.0437</v>
       </c>
-      <c r="O7" s="1">
-        <v>3024.46</v>
-      </c>
-      <c r="P7" s="1">
-        <v>63024.46</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0157</v>
+        <v>0.148</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>16.4953</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>3925.4684</v>
       </c>
       <c r="F8" s="1">
         <v>340.3012</v>
       </c>
       <c r="G8" s="1">
-        <v>4265.7696</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>64415.7594</v>
       </c>
       <c r="I8" s="1">
-        <v>69933.414</v>
+        <v>1311.5055</v>
       </c>
       <c r="J8" s="1">
-        <v>16.3941</v>
+        <v>65727.265</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>59933.414</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>15.2678</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-5613.3703</v>
       </c>
-      <c r="O8" s="1">
-        <v>7411.0896</v>
-      </c>
-      <c r="P8" s="1">
-        <v>77411.08960000001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0601</v>
+        <v>0.0707</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>16.9701</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>4265.7696</v>
       </c>
       <c r="F9" s="1">
         <v>472.9773</v>
       </c>
       <c r="G9" s="1">
-        <v>4738.747</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>72015.1496</v>
       </c>
       <c r="I9" s="1">
-        <v>77959.8864</v>
+        <v>5698.1352</v>
       </c>
       <c r="J9" s="1">
-        <v>16.4516</v>
+        <v>77713.28479999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>67959.8864</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>15.9314</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-8026.4724</v>
       </c>
-      <c r="O9" s="1">
-        <v>9384.617200000001</v>
-      </c>
-      <c r="P9" s="1">
-        <v>89384.61719999999</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0226</v>
+        <v>0.0262</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>17.9905</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>4738.747</v>
       </c>
       <c r="F10" s="1">
         <v>289.9726</v>
       </c>
       <c r="G10" s="1">
-        <v>5028.7196</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>84810.302</v>
       </c>
       <c r="I10" s="1">
-        <v>83176.6388</v>
+        <v>7671.6628</v>
       </c>
       <c r="J10" s="1">
-        <v>16.5403</v>
+        <v>92481.9648</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>73176.6388</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.4422</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-5216.7524</v>
       </c>
-      <c r="O10" s="1">
-        <v>14167.8648</v>
-      </c>
-      <c r="P10" s="1">
-        <v>104167.8648</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0481</v>
+        <v>0.0544</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>18.2369</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>5028.7196</v>
       </c>
       <c r="F11" s="1">
         <v>483.2607</v>
       </c>
       <c r="G11" s="1">
-        <v>5511.9803</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>91232.5392</v>
       </c>
       <c r="I11" s="1">
-        <v>91989.8161</v>
+        <v>12454.9104</v>
       </c>
       <c r="J11" s="1">
-        <v>16.6891</v>
+        <v>103687.4495</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>81989.8161</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.3043</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-8813.177299999999</v>
       </c>
-      <c r="O11" s="1">
-        <v>15354.6875</v>
-      </c>
-      <c r="P11" s="1">
-        <v>115354.6875</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0104</v>
+        <v>0.0118</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>19.1395</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>5511.9803</v>
       </c>
       <c r="F12" s="1">
         <v>265.2699</v>
       </c>
       <c r="G12" s="1">
-        <v>5777.2502</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>104949.2071</v>
       </c>
       <c r="I12" s="1">
-        <v>97066.9503</v>
+        <v>13641.7331</v>
       </c>
       <c r="J12" s="1">
-        <v>16.8016</v>
+        <v>118590.9402</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>87066.9503</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>15.7959</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-5077.1342</v>
       </c>
-      <c r="O12" s="1">
-        <v>20277.5533</v>
-      </c>
-      <c r="P12" s="1">
-        <v>130277.5533</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0393</v>
+        <v>0.0431</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>20.979</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>5777.2502</v>
       </c>
       <c r="F13" s="1">
         <v>-27.4527</v>
       </c>
       <c r="G13" s="1">
-        <v>5749.7976</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>120572.9457</v>
       </c>
       <c r="I13" s="1">
-        <v>96491.0206</v>
+        <v>18564.5989</v>
       </c>
       <c r="J13" s="1">
-        <v>16.7816</v>
+        <v>139137.5445</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>86491.0206</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>14.971</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>572.9457</v>
       </c>
-      <c r="O13" s="1">
-        <v>30850.4989</v>
-      </c>
-      <c r="P13" s="1">
-        <v>150850.4989</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.07539999999999999</v>
+        <v>0.082</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>22.3911</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>5749.7976</v>
       </c>
       <c r="F14" s="1">
         <v>-5749.7976</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>128077.3156</v>
       </c>
       <c r="I14" s="1">
-        <v>96491.0206</v>
+        <v>29137.5445</v>
       </c>
       <c r="J14" s="1">
-        <v>16.7816</v>
+        <v>157214.8601</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>86491.0206</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.0424</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>128077.3156</v>
       </c>
-      <c r="O14" s="1">
-        <v>158927.8146</v>
-      </c>
-      <c r="P14" s="1">
-        <v>158927.8146</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.012</v>
+        <v>0.0542</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>17.0207</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>587.5199</v>
       </c>
       <c r="G2" s="1">
-        <v>587.5199</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.121999999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.0207</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.121999999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>17.4608</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>587.5199</v>
       </c>
       <c r="F3" s="1">
         <v>566.7558</v>
       </c>
       <c r="G3" s="1">
-        <v>1154.2757</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>20050</v>
+        <v>10205.3382</v>
       </c>
       <c r="I3" s="1">
-        <v>19896.0099</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.2368</v>
+        <v>10205.3382</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9896.009899999999</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>16.8437</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9896.009899999999</v>
       </c>
-      <c r="O3" s="1">
-        <v>103.9901</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20153.9901</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0103</v>
+        <v>0.0205</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>16.886</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1154.2757</v>
       </c>
       <c r="F4" s="1">
         <v>598.3649</v>
       </c>
       <c r="G4" s="1">
-        <v>1752.6406</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>29441.7338</v>
+        <v>19390.1006</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>103.9901</v>
       </c>
       <c r="J4" s="1">
-        <v>17.117</v>
+        <v>19494.0907</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.3269</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10103.9901</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29441.7338</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0236</v>
+        <v>-0.0352</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>17.59</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>1752.6406</v>
       </c>
       <c r="F5" s="1">
         <v>550.4316</v>
       </c>
       <c r="G5" s="1">
-        <v>2303.0723</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>40301.0012</v>
+        <v>30669.108</v>
       </c>
       <c r="I5" s="1">
-        <v>39682.0926</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.2301</v>
+        <v>30669.108</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29682.0926</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>16.9356</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9682.0926</v>
       </c>
-      <c r="O5" s="1">
-        <v>317.9074</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40618.9086</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0298</v>
+        <v>0.0398</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>15.0121</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2303.0723</v>
       </c>
       <c r="F6" s="1">
         <v>687.3061</v>
       </c>
       <c r="G6" s="1">
-        <v>2990.3783</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>44658.9083</v>
+        <v>34394.5421</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>317.9074</v>
       </c>
       <c r="J6" s="1">
-        <v>16.7203</v>
+        <v>34712.4495</v>
       </c>
       <c r="K6" s="1">
+        <v>40000</v>
+      </c>
+      <c r="L6" s="1">
+        <v>17.3681</v>
+      </c>
+      <c r="M6" s="1">
         <v>3.57</v>
       </c>
-      <c r="L6" s="1">
-        <v>7399.7712</v>
-      </c>
-      <c r="M6" s="1">
-        <v>10000</v>
-      </c>
       <c r="N6" s="1">
-        <v>-2918.1362</v>
+        <v>5631.2344</v>
       </c>
       <c r="O6" s="1">
-        <v>7399.7712</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>52058.6796</v>
+        <v>-4686.673</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0284</v>
+        <v>-0.1465</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>15.3645</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>2990.3783</v>
       </c>
       <c r="F7" s="1">
         <v>984.4868</v>
       </c>
       <c r="G7" s="1">
-        <v>3974.8651</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>60755.0188</v>
+        <v>45707.335</v>
       </c>
       <c r="I7" s="1">
-        <v>65126.1474</v>
+        <v>5631.2344</v>
       </c>
       <c r="J7" s="1">
-        <v>16.3845</v>
+        <v>51338.5694</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>55126.1474</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>18.4345</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-15126.1474</v>
       </c>
-      <c r="O7" s="1">
-        <v>2273.6238</v>
-      </c>
-      <c r="P7" s="1">
-        <v>63028.6426</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0156</v>
+        <v>0.1482</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>16.4953</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>3974.8651</v>
       </c>
       <c r="F8" s="1">
         <v>355.4269</v>
       </c>
       <c r="G8" s="1">
-        <v>4330.2921</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>71058.7939</v>
+        <v>65226.3446</v>
       </c>
       <c r="I8" s="1">
-        <v>70989.0212</v>
+        <v>505.087</v>
       </c>
       <c r="J8" s="1">
-        <v>16.3936</v>
+        <v>65731.4316</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60989.0212</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>15.3437</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-5862.8738</v>
       </c>
-      <c r="O8" s="1">
-        <v>6410.75</v>
-      </c>
-      <c r="P8" s="1">
-        <v>77469.5439</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0608</v>
+        <v>0.0716</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>16.9701</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>4330.2921</v>
       </c>
       <c r="F9" s="1">
         <v>492.2174</v>
       </c>
       <c r="G9" s="1">
-        <v>4822.5095</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>73104.42389999999</v>
       </c>
       <c r="I9" s="1">
-        <v>79342.0004</v>
+        <v>4642.2131</v>
       </c>
       <c r="J9" s="1">
-        <v>16.4524</v>
+        <v>77746.637</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>69342.0004</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.0132</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-8352.9791</v>
       </c>
-      <c r="O9" s="1">
-        <v>8057.7709</v>
-      </c>
-      <c r="P9" s="1">
-        <v>89471.8587</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0229</v>
+        <v>0.0266</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>17.9905</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>4822.5095</v>
       </c>
       <c r="F10" s="1">
         <v>307.9667</v>
       </c>
       <c r="G10" s="1">
-        <v>5130.4762</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>91821.1583</v>
+        <v>86309.4173</v>
       </c>
       <c r="I10" s="1">
-        <v>84882.47470000001</v>
+        <v>6289.234</v>
       </c>
       <c r="J10" s="1">
-        <v>16.5448</v>
+        <v>92598.6513</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>74882.47470000001</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.5277</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-5540.4743</v>
       </c>
-      <c r="O10" s="1">
-        <v>12517.2965</v>
-      </c>
-      <c r="P10" s="1">
-        <v>104338.4548</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0489</v>
+        <v>0.0553</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>18.2369</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>5130.4762</v>
       </c>
       <c r="F11" s="1">
         <v>507.1918</v>
       </c>
       <c r="G11" s="1">
-        <v>5637.668</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>102280.2641</v>
+        <v>93078.63800000001</v>
       </c>
       <c r="I11" s="1">
-        <v>94132.0811</v>
+        <v>10748.7597</v>
       </c>
       <c r="J11" s="1">
-        <v>16.697</v>
+        <v>103827.3977</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>84132.0811</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.3985</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-9249.606400000001</v>
       </c>
-      <c r="O11" s="1">
-        <v>13267.6901</v>
-      </c>
-      <c r="P11" s="1">
-        <v>115547.9542</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0106</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>19.1395</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>5637.668</v>
       </c>
       <c r="F12" s="1">
         <v>286.2018</v>
       </c>
       <c r="G12" s="1">
-        <v>5923.8698</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>107342.3262</v>
       </c>
       <c r="I12" s="1">
-        <v>99609.84020000001</v>
+        <v>11499.1533</v>
       </c>
       <c r="J12" s="1">
-        <v>16.815</v>
+        <v>118841.4794</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>89609.84020000001</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>15.8948</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-5477.7591</v>
       </c>
-      <c r="O12" s="1">
-        <v>17789.9311</v>
-      </c>
-      <c r="P12" s="1">
-        <v>130581.5965</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0401</v>
+        <v>0.044</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>20.979</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>5923.8698</v>
       </c>
       <c r="F13" s="1">
         <v>-13.2876</v>
       </c>
       <c r="G13" s="1">
-        <v>5910.5822</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>123632.9395</v>
       </c>
       <c r="I13" s="1">
-        <v>99331.08010000001</v>
+        <v>16021.3942</v>
       </c>
       <c r="J13" s="1">
-        <v>16.8056</v>
+        <v>139654.3337</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>89331.08010000001</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>15.0799</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>277.3158</v>
       </c>
-      <c r="O13" s="1">
-        <v>28067.2468</v>
-      </c>
-      <c r="P13" s="1">
-        <v>151422.8705</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0771</v>
+        <v>0.0839</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>22.3911</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>5910.5822</v>
       </c>
       <c r="F14" s="1">
         <v>-5910.5822</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>131658.8096</v>
       </c>
       <c r="I14" s="1">
-        <v>99331.08010000001</v>
+        <v>26298.7099</v>
       </c>
       <c r="J14" s="1">
-        <v>16.8056</v>
+        <v>157957.5196</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>89331.08010000001</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.1138</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>131658.8096</v>
       </c>
-      <c r="O14" s="1">
-        <v>159726.0564</v>
-      </c>
-      <c r="P14" s="1">
-        <v>159726.0564</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0105</v>
+        <v>0.0555</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>17.0207</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>587.5199</v>
       </c>
       <c r="G2" s="1">
-        <v>587.5199</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.121999999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.0207</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.121999999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>17.4608</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>587.5199</v>
       </c>
       <c r="F3" s="1">
         <v>569.6343000000001</v>
       </c>
       <c r="G3" s="1">
-        <v>1157.1542</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>20100</v>
+        <v>10205.3382</v>
       </c>
       <c r="I3" s="1">
-        <v>19946.2707</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.2373</v>
+        <v>10205.3382</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9946.270699999999</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>16.9292</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9946.270699999999</v>
       </c>
-      <c r="O3" s="1">
-        <v>53.7293</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20153.7293</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0103</v>
+        <v>0.0205</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>16.886</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1157.1542</v>
       </c>
       <c r="F4" s="1">
         <v>595.3884</v>
       </c>
       <c r="G4" s="1">
-        <v>1752.5427</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>29440.0878</v>
+        <v>19438.4549</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>53.7293</v>
       </c>
       <c r="J4" s="1">
-        <v>17.118</v>
+        <v>19492.1843</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.2838</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10053.7293</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29440.0878</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0237</v>
+        <v>-0.0353</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>17.59</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>1752.5427</v>
       </c>
       <c r="F5" s="1">
         <v>567.8456</v>
       </c>
       <c r="G5" s="1">
-        <v>2320.3883</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>40604.01</v>
+        <v>30667.3934</v>
       </c>
       <c r="I5" s="1">
-        <v>39988.4041</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.2335</v>
+        <v>30667.3934</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29988.4041</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.1114</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9988.4041</v>
       </c>
-      <c r="O5" s="1">
-        <v>11.5959</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40615.6059</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0298</v>
+        <v>0.0398</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>15.0121</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2320.3883</v>
       </c>
       <c r="F6" s="1">
         <v>666.9018</v>
       </c>
       <c r="G6" s="1">
-        <v>2987.29</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>44612.7865</v>
+        <v>34653.1423</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>11.5959</v>
       </c>
       <c r="J6" s="1">
-        <v>16.7376</v>
+        <v>34664.7382</v>
       </c>
       <c r="K6" s="1">
+        <v>40000</v>
+      </c>
+      <c r="L6" s="1">
+        <v>17.2385</v>
+      </c>
+      <c r="M6" s="1">
         <v>3.57</v>
       </c>
-      <c r="L6" s="1">
-        <v>7455.4075</v>
-      </c>
-      <c r="M6" s="1">
-        <v>10000</v>
-      </c>
       <c r="N6" s="1">
-        <v>-2556.1884</v>
+        <v>5630.9196</v>
       </c>
       <c r="O6" s="1">
-        <v>7455.4075</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>52068.194</v>
+        <v>-4380.6763</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0287</v>
+        <v>-0.1476</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>15.3645</v>
       </c>
       <c r="E7" s="1">
+        <v>2987.29</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1017.3399</v>
+      </c>
+      <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
-      <c r="F7" s="1">
-        <v>1037.6335</v>
-      </c>
-      <c r="G7" s="1">
-        <v>4024.9235</v>
-      </c>
       <c r="H7" s="1">
-        <v>61520.1506</v>
+        <v>45660.1304</v>
       </c>
       <c r="I7" s="1">
-        <v>65942.7196</v>
+        <v>5630.9196</v>
       </c>
       <c r="J7" s="1">
-        <v>16.3836</v>
+        <v>51291.05</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>55630.9196</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>18.6225</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-15942.7196</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>1512.6879</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>63032.8385</v>
+        <v>-15630.9196</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0155</v>
+        <v>0.1484</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>16.4953</v>
       </c>
       <c r="E8" s="1">
+        <v>4004.63</v>
+      </c>
+      <c r="F8" s="1">
+        <v>391.2671</v>
+      </c>
+      <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
-      <c r="F8" s="1">
-        <v>370.9736</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4395.8971</v>
-      </c>
       <c r="H8" s="1">
-        <v>72135.3521</v>
+        <v>65714.77619999999</v>
       </c>
       <c r="I8" s="1">
-        <v>72062.03999999999</v>
+        <v>-0</v>
       </c>
       <c r="J8" s="1">
-        <v>16.393</v>
+        <v>65714.77619999999</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>62084.9879</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>15.5033</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-6119.3204</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>5393.3675</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>77528.7196</v>
+        <v>-6454.0684</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0616</v>
+        <v>0.0722</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>16.9701</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>4395.8971</v>
       </c>
       <c r="F9" s="1">
         <v>512.0650000000001</v>
       </c>
       <c r="G9" s="1">
-        <v>4907.962</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>82856.7056</v>
+        <v>74211.9739</v>
       </c>
       <c r="I9" s="1">
-        <v>80751.83349999999</v>
+        <v>3545.9316</v>
       </c>
       <c r="J9" s="1">
-        <v>16.4532</v>
+        <v>77757.90549999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70774.78140000001</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.1002</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-8689.7935</v>
       </c>
-      <c r="O9" s="1">
-        <v>6703.574</v>
-      </c>
-      <c r="P9" s="1">
-        <v>89560.27959999999</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0232</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>17.9905</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>4907.962</v>
       </c>
       <c r="F10" s="1">
         <v>326.6709</v>
       </c>
       <c r="G10" s="1">
-        <v>5234.6329</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>93685.2727</v>
+        <v>87838.7779</v>
       </c>
       <c r="I10" s="1">
-        <v>86628.8067</v>
+        <v>4856.1382</v>
       </c>
       <c r="J10" s="1">
-        <v>16.5492</v>
+        <v>92694.916</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>76651.7546</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.6178</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-5876.9732</v>
       </c>
-      <c r="O10" s="1">
-        <v>10826.6008</v>
-      </c>
-      <c r="P10" s="1">
-        <v>104511.8735</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0497</v>
+        <v>0.0563</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>18.2369</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>5234.6329</v>
       </c>
       <c r="F11" s="1">
         <v>532.1180000000001</v>
       </c>
       <c r="G11" s="1">
-        <v>5766.7509</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>104622.1254</v>
+        <v>94968.2812</v>
       </c>
       <c r="I11" s="1">
-        <v>96332.9892</v>
+        <v>8979.165000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>16.7049</v>
+        <v>103947.4462</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>86355.9371</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.497</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-9704.1826</v>
       </c>
-      <c r="O11" s="1">
-        <v>11122.4182</v>
-      </c>
-      <c r="P11" s="1">
-        <v>115744.5437</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0108</v>
+        <v>0.0122</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>19.1395</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>5766.7509</v>
       </c>
       <c r="F12" s="1">
         <v>308.2035</v>
       </c>
       <c r="G12" s="1">
-        <v>6074.9544</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>115668.3467</v>
+        <v>109800.0911</v>
       </c>
       <c r="I12" s="1">
-        <v>102231.8494</v>
+        <v>9274.982400000001</v>
       </c>
       <c r="J12" s="1">
-        <v>16.8284</v>
+        <v>119075.0735</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>92254.79730000001</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>15.9977</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-5898.8602</v>
       </c>
-      <c r="O12" s="1">
-        <v>15223.5581</v>
-      </c>
-      <c r="P12" s="1">
-        <v>130891.9047</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0409</v>
+        <v>0.045</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>20.979</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>6074.9544</v>
       </c>
       <c r="F13" s="1">
         <v>1.8643</v>
       </c>
       <c r="G13" s="1">
-        <v>6076.8187</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>126825.0301</v>
+        <v>126786.1207</v>
       </c>
       <c r="I13" s="1">
-        <v>102270.9615</v>
+        <v>13376.1222</v>
       </c>
       <c r="J13" s="1">
-        <v>16.8297</v>
+        <v>140162.2429</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>92293.9094</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>15.1925</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-39.1121</v>
       </c>
-      <c r="O13" s="1">
-        <v>25184.446</v>
-      </c>
-      <c r="P13" s="1">
-        <v>152009.4761</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0789</v>
+        <v>0.0859</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,7 +3628,7 @@
         <v>22.3911</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6076.8187</v>
       </c>
       <c r="F14" s="1">
         <v>-6076.8187</v>
@@ -3658,34 +3637,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>135361.7451</v>
       </c>
       <c r="I14" s="1">
-        <v>102270.9615</v>
+        <v>23337.0101</v>
       </c>
       <c r="J14" s="1">
-        <v>16.8297</v>
+        <v>158698.7552</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>92293.9094</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.1879</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>135361.7451</v>
       </c>
-      <c r="O14" s="1">
-        <v>160546.1911</v>
-      </c>
-      <c r="P14" s="1">
-        <v>160546.1911</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.008999999999999999</v>
+        <v>0.0568</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>17.0207</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>587.5199</v>
       </c>
       <c r="G2" s="1">
-        <v>587.5199</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.121999999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.0207</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.121999999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>17.4608</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>587.5199</v>
       </c>
       <c r="F3" s="1">
         <v>572.5128</v>
       </c>
       <c r="G3" s="1">
-        <v>1160.0327</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>20150</v>
+        <v>10205.3382</v>
       </c>
       <c r="I3" s="1">
-        <v>19996.5315</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.2379</v>
+        <v>10205.3382</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9996.531499999999</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.0148</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9996.531499999999</v>
       </c>
-      <c r="O3" s="1">
-        <v>3.4685</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20153.4685</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0103</v>
+        <v>0.0205</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>16.886</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1160.0327</v>
       </c>
       <c r="F4" s="1">
         <v>592.412</v>
       </c>
       <c r="G4" s="1">
-        <v>1752.4447</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>29438.4418</v>
+        <v>19486.8093</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>3.4685</v>
       </c>
       <c r="J4" s="1">
-        <v>17.1189</v>
+        <v>19490.2779</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.2409</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10003.4685</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29438.4418</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0237</v>
+        <v>-0.0354</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>17.59</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>1752.4447</v>
       </c>
       <c r="F5" s="1">
         <v>568.5048</v>
       </c>
       <c r="G5" s="1">
-        <v>2320.9495</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>40613.8312</v>
+        <v>30665.6788</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.2343</v>
+        <v>30665.6788</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.1189</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40613.8312</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0298</v>
+        <v>0.0399</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>15.0121</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2320.9495</v>
       </c>
       <c r="F6" s="1">
         <v>666.1292999999999</v>
       </c>
       <c r="G6" s="1">
-        <v>2987.0788</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>44609.6326</v>
+        <v>34661.5241</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>-0</v>
       </c>
       <c r="J6" s="1">
-        <v>16.7388</v>
+        <v>34661.5241</v>
       </c>
       <c r="K6" s="1">
+        <v>40000</v>
+      </c>
+      <c r="L6" s="1">
+        <v>17.2343</v>
+      </c>
+      <c r="M6" s="1">
         <v>3.57</v>
       </c>
-      <c r="L6" s="1">
-        <v>7457.2108</v>
-      </c>
-      <c r="M6" s="1">
-        <v>10000</v>
-      </c>
       <c r="N6" s="1">
-        <v>-2542.7892</v>
+        <v>5630.6047</v>
       </c>
       <c r="O6" s="1">
-        <v>7457.2108</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>52066.8434</v>
+        <v>-4369.3953</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0287</v>
+        <v>-0.1476</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>15.3645</v>
       </c>
       <c r="E7" s="1">
+        <v>2987.0788</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1017.3195</v>
+      </c>
+      <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
-      <c r="F7" s="1">
-        <v>1088.5721</v>
-      </c>
-      <c r="G7" s="1">
-        <v>4075.6509</v>
-      </c>
       <c r="H7" s="1">
-        <v>62295.5093</v>
+        <v>45656.9024</v>
       </c>
       <c r="I7" s="1">
-        <v>66725.3661</v>
+        <v>5630.6047</v>
       </c>
       <c r="J7" s="1">
-        <v>16.3717</v>
+        <v>51287.5072</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>55630.6047</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>18.6237</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-16725.3661</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>731.8447</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>63027.354</v>
+        <v>-15630.6047</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0155</v>
+        <v>0.1484</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>16.4953</v>
       </c>
       <c r="E8" s="1">
+        <v>4004.3983</v>
+      </c>
+      <c r="F8" s="1">
+        <v>458.2026</v>
+      </c>
+      <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
-      <c r="F8" s="1">
-        <v>386.95</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4462.6009</v>
-      </c>
       <c r="H8" s="1">
-        <v>73229.94190000001</v>
+        <v>65710.97440000001</v>
       </c>
       <c r="I8" s="1">
-        <v>73108.2219</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>16.3824</v>
+        <v>65710.97440000001</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>63188.7944</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>15.7798</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-6382.8558</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>4348.9889</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>77578.9308</v>
+        <v>-7558.1897</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0623</v>
+        <v>0.0722</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>16.9701</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>4462.6009</v>
       </c>
       <c r="F9" s="1">
         <v>532.5354</v>
       </c>
       <c r="G9" s="1">
-        <v>4995.1363</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>84328.39109999999</v>
+        <v>75338.07460000001</v>
       </c>
       <c r="I9" s="1">
-        <v>82145.40150000001</v>
+        <v>2441.8103</v>
       </c>
       <c r="J9" s="1">
-        <v>16.4451</v>
+        <v>77779.8849</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>72225.974</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.1847</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-9037.179599999999</v>
       </c>
-      <c r="O9" s="1">
-        <v>5311.8093</v>
-      </c>
-      <c r="P9" s="1">
-        <v>89640.2003</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0235</v>
+        <v>0.0273</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>17.9905</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>4995.1363</v>
       </c>
       <c r="F10" s="1">
         <v>346.1079</v>
       </c>
       <c r="G10" s="1">
-        <v>5341.2443</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>95593.31690000001</v>
+        <v>89398.954</v>
       </c>
       <c r="I10" s="1">
-        <v>88372.0563</v>
+        <v>3404.6308</v>
       </c>
       <c r="J10" s="1">
-        <v>16.5452</v>
+        <v>92803.58470000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>78452.62880000001</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.7058</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-6226.6548</v>
       </c>
-      <c r="O10" s="1">
-        <v>9085.154399999999</v>
-      </c>
-      <c r="P10" s="1">
-        <v>104678.4714</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0506</v>
+        <v>0.0572</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>18.2369</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>5341.2443</v>
       </c>
       <c r="F11" s="1">
         <v>558.0748</v>
       </c>
       <c r="G11" s="1">
-        <v>5899.3191</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>107027.2167</v>
+        <v>96902.4559</v>
       </c>
       <c r="I11" s="1">
-        <v>98549.611</v>
+        <v>7177.9759</v>
       </c>
       <c r="J11" s="1">
-        <v>16.7053</v>
+        <v>104080.4318</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>88630.1835</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.5935</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10177.5547</v>
       </c>
-      <c r="O11" s="1">
-        <v>8907.5998</v>
-      </c>
-      <c r="P11" s="1">
-        <v>115934.8165</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.011</v>
+        <v>0.0124</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>19.1395</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>5899.3191</v>
       </c>
       <c r="F12" s="1">
         <v>331.3206</v>
       </c>
       <c r="G12" s="1">
-        <v>6230.6396</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>118632.6249</v>
+        <v>112324.2153</v>
       </c>
       <c r="I12" s="1">
-        <v>104890.9208</v>
+        <v>7000.4213</v>
       </c>
       <c r="J12" s="1">
-        <v>16.8347</v>
+        <v>119324.6365</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>94971.4932</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.0987</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-6341.3098</v>
       </c>
-      <c r="O12" s="1">
-        <v>12566.29</v>
-      </c>
-      <c r="P12" s="1">
-        <v>131198.9149</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0418</v>
+        <v>0.046</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>20.979</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>6230.6396</v>
       </c>
       <c r="F13" s="1">
         <v>18.0542</v>
       </c>
       <c r="G13" s="1">
-        <v>6248.6938</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>130412.1143</v>
+        <v>130035.3185</v>
       </c>
       <c r="I13" s="1">
-        <v>105269.679</v>
+        <v>10659.1115</v>
       </c>
       <c r="J13" s="1">
-        <v>16.8467</v>
+        <v>140694.43</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>95350.2515</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>15.3034</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-378.7583</v>
       </c>
-      <c r="O13" s="1">
-        <v>22187.5318</v>
-      </c>
-      <c r="P13" s="1">
-        <v>152599.6461</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.08069999999999999</v>
+        <v>0.08790000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,7 +4396,7 @@
         <v>22.3911</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6248.6938</v>
       </c>
       <c r="F14" s="1">
         <v>-6248.6938</v>
@@ -4432,34 +4405,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>139190.2794</v>
       </c>
       <c r="I14" s="1">
-        <v>105269.679</v>
+        <v>20280.3532</v>
       </c>
       <c r="J14" s="1">
-        <v>16.8467</v>
+        <v>159470.6326</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>95350.2515</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.2592</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>139190.2794</v>
       </c>
-      <c r="O14" s="1">
-        <v>161377.8111</v>
-      </c>
-      <c r="P14" s="1">
-        <v>161377.8111</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0075</v>
+        <v>0.0582</v>
       </c>
     </row>
   </sheetData>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>22.3308</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>17.3234</v>
+        <v>15.9392</v>
       </c>
       <c r="D3" s="1">
-        <v>16.7816</v>
+        <v>15.0424</v>
       </c>
       <c r="E3" s="1">
-        <v>16.8056</v>
+        <v>15.1138</v>
       </c>
       <c r="F3" s="1">
-        <v>16.8297</v>
+        <v>15.1879</v>
       </c>
       <c r="G3" s="1">
-        <v>16.8467</v>
+        <v>15.2592</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.3007</v>
       </c>
       <c r="C4" s="3">
-        <v>0.3374</v>
+        <v>0.3993</v>
       </c>
       <c r="D4" s="3">
-        <v>0.3044</v>
+        <v>0.3703</v>
       </c>
       <c r="E4" s="3">
-        <v>0.3105</v>
+        <v>0.3759</v>
       </c>
       <c r="F4" s="3">
-        <v>0.3168</v>
+        <v>0.3812</v>
       </c>
       <c r="G4" s="3">
-        <v>0.323</v>
+        <v>0.387</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.2104</v>
       </c>
       <c r="C5" s="3">
-        <v>0.0965</v>
+        <v>0.2413</v>
       </c>
       <c r="D5" s="3">
-        <v>0.09370000000000001</v>
+        <v>0.2348</v>
       </c>
       <c r="E5" s="3">
-        <v>0.09470000000000001</v>
+        <v>0.2366</v>
       </c>
       <c r="F5" s="3">
-        <v>0.09569999999999999</v>
+        <v>0.2384</v>
       </c>
       <c r="G5" s="3">
-        <v>0.0968</v>
+        <v>0.2392</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>1.3327</v>
       </c>
       <c r="C6" s="4">
-        <v>3.2855</v>
+        <v>1.5704</v>
       </c>
       <c r="D6" s="4">
-        <v>3.0312</v>
+        <v>1.4904</v>
       </c>
       <c r="E6" s="4">
-        <v>3.0648</v>
+        <v>1.5025</v>
       </c>
       <c r="F6" s="4">
-        <v>3.0974</v>
+        <v>1.5138</v>
       </c>
       <c r="G6" s="4">
-        <v>3.1274</v>
+        <v>1.5329</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.7706</v>
+        <v>0.5098</v>
       </c>
       <c r="D7" s="3">
-        <v>0.7523</v>
+        <v>0.7022</v>
       </c>
       <c r="E7" s="3">
-        <v>0.755</v>
+        <v>0.704</v>
       </c>
       <c r="F7" s="3">
-        <v>0.7577</v>
+        <v>0.7057</v>
       </c>
       <c r="G7" s="3">
-        <v>0.7605</v>
+        <v>0.7086</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>7457.189</v>
+        <v>5630.583</v>
       </c>
       <c r="D8" s="1">
-        <v>7344.5036</v>
+        <v>5631.5492</v>
       </c>
       <c r="E8" s="1">
-        <v>7399.7712</v>
+        <v>5631.2344</v>
       </c>
       <c r="F8" s="1">
-        <v>7455.4075</v>
+        <v>5630.9196</v>
       </c>
       <c r="G8" s="1">
-        <v>7457.2108</v>
+        <v>5630.6047</v>
       </c>
     </row>
   </sheetData>
